--- a/biology/Zoologie/Hirondelle_de_rivage/Hirondelle_de_rivage.xlsx
+++ b/biology/Zoologie/Hirondelle_de_rivage/Hirondelle_de_rivage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Riparia riparia
 L'Hirondelle de rivage (Riparia riparia) est une espèce de passereaux migrateurs de la famille des Hirundinidae. C'est la seule espèce d'hirondelles à dos brun.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est plus petite que l'hirondelle rustique, sa queue est courte et peu échancrée. Elle est ornée d'une bande pectorale brun cendré et sa gorge et son ventre sont blancs.
 Elle mesure douze centimètres de long pour une envergure de trente centimètres et, comme ses cousines, elle est une virtuose du vol. Sa face ventrale claire et sa face dorsale foncée la rend probablement plus discrète au regard d'éventuels prédateurs.
@@ -545,7 +559,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de reproduction s'étend à toute l'Europe et aux pays méditerranéens. On la rencontre également en Amérique du Nord ainsi que dans une partie du nord de l'Asie.
 Les individus européens hivernent dans le sud et l'est de l'Afrique. Les individus américains hivernent en Amérique du Sud.
@@ -582,7 +598,9 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Exclusivement d'insectes attrapés en vol, parfois sur le sol ou à la surface de l’eau.
 </t>
@@ -613,7 +631,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un des rares oiseaux qui creuse le sol. Elle niche, en colonies de quelques couples à six ou sept cents, dans une chambre qu'elle a creusée au fond d'un terrier de section ronde, en forme de galerie de soixante centimètres à un mètre de long, dans une paroi ou une falaise, généralement de sable ou de terre meuble. La chambre est ainsi maintenue à une température et une hygrométrie presque constantes.
 Le nid est généralement fabriqué à partir d'un mélange d'herbes et de plumes, et il peut être utilisé plusieurs années de suite.
@@ -650,7 +670,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement à ses cousines et aux martinets, cette hirondelle vole près du sol et souvent au ras de l'eau, très rarement en altitude.
 Communication : La communication est visuelle et auditive; à l’automne, les hirondelles de rivage se rassemblent dans les zones humides avec d’autres espèces d’hirondelles. Elles se perchent sur des arbustes en bordure de cours d’eau, juste avant le crépuscule, puis elles exécutent une sorte de ballet aérien constitué de spirales et de boucles, avant de retourner se percher pour la nuit.
